--- a/artfynd/A 4557-2022 artfynd.xlsx
+++ b/artfynd/A 4557-2022 artfynd.xlsx
@@ -1197,7 +1197,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Eduardo Ottimofiore, Annelie Thor</t>
+          <t>Annelie Thor, Eduardo Ottimofiore</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>

--- a/artfynd/A 4557-2022 artfynd.xlsx
+++ b/artfynd/A 4557-2022 artfynd.xlsx
@@ -1197,7 +1197,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Annelie Thor, Eduardo Ottimofiore</t>
+          <t>Eduardo Ottimofiore, Annelie Thor</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>

--- a/artfynd/A 4557-2022 artfynd.xlsx
+++ b/artfynd/A 4557-2022 artfynd.xlsx
@@ -1076,7 +1076,7 @@
         <v>131089006</v>
       </c>
       <c r="B5" t="n">
-        <v>58425</v>
+        <v>58426</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Eduardo Ottimofiore, Annelie Thor</t>
+          <t>Annelie Thor, Eduardo Ottimofiore</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
